--- a/data/hotels_by_city/Houston/Houston_shard_125.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d1484269-Reviews-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Pearland-South-Houston.h2811014.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,819 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r576639093-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1484269</t>
+  </si>
+  <si>
+    <t>576639093</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>pretty good</t>
+  </si>
+  <si>
+    <t>Staff was very friendly and rooms clean.  Breakfast was good. The only problem we had was that the elevator was not working for the stay and my mom has a tough time getting up and down the stairs other than that the stay was very nice.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r573747438-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>573747438</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away from a very busy road so it is nice and quiet.  It was very roomy and comfortable-a good value!It is also in the middle of ALL the shopping and eating places you can think of (but that also means there’s a LOT of traffic).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r538561760-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>538561760</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>In and Out Stay</t>
+  </si>
+  <si>
+    <t>We arrived late after flying in to Houston, Hobby Airport. Despite the late hour, the desk clerk was friendly and helpful. We grabbed some frozen dinners from the lobby store. The clerk set us up with napkins and utensils. This was the jumping off point for our gulf coast road trip. If in the area again, we will definitely stay here and avoid the city traffic.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r509490382-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>509490382</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Daughter Champs swim meet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was great! Took time to get to know us upon check in and check on my daughters swim meet throughout weekend which I thought was very sweet! The room was very clean and comfortable and breakfast was great each morning. The little store where you can buy snacks was a nice treat when her sweet tooth hit and she wanted ice cream. We would definitely stay again. Staff and clean facilities always bring us back again!!! </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r502933258-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>502933258</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Mostly good, avoid the pool</t>
+  </si>
+  <si>
+    <t>The entrance and lobby are nice.  The hallways have a funky smell.  Our double queen suite had PLENTY of space for my 2 kids, husband, and I.  It was set up well and I appreciated the refrigerator and microwave.  The free breakfast buffet was good, with a number of items to choose from and a very nice lady refilling the eggs and bacon.  We enjoyed the waffles.  The free wifi was good too.What we did not enjoy was the pool.  We went to the pool as soon as we got there and it's pretty much in the parking lot with a gate around it, but open access to anyone walking in.  There was a little bit of furniture which was old and gross.  One family was there when we arrived and apparently they were having a gathering of some sort (people NOT staying at the hotel) because their friends kept coming and coming and coming, filling up the tiny sitting area and pool.  We ended up leaving the pool.  When left the hotel and when we got back around 11pm, the group was still there (after pool hours) making noise, drinking, etc.  The hotel was a pretty good deal, but the murky pool and it's outdated and gross furniture should be avoided.MoreShow less</t>
+  </si>
+  <si>
+    <t>The entrance and lobby are nice.  The hallways have a funky smell.  Our double queen suite had PLENTY of space for my 2 kids, husband, and I.  It was set up well and I appreciated the refrigerator and microwave.  The free breakfast buffet was good, with a number of items to choose from and a very nice lady refilling the eggs and bacon.  We enjoyed the waffles.  The free wifi was good too.What we did not enjoy was the pool.  We went to the pool as soon as we got there and it's pretty much in the parking lot with a gate around it, but open access to anyone walking in.  There was a little bit of furniture which was old and gross.  One family was there when we arrived and apparently they were having a gathering of some sort (people NOT staying at the hotel) because their friends kept coming and coming and coming, filling up the tiny sitting area and pool.  We ended up leaving the pool.  When left the hotel and when we got back around 11pm, the group was still there (after pool hours) making noise, drinking, etc.  The hotel was a pretty good deal, but the murky pool and it's outdated and gross furniture should be avoided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r498646125-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>498646125</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay the night before our cruise!!</t>
+  </si>
+  <si>
+    <t>This was a very decently priced hotel with nice amenities!  We stayed here the night before our cruise and it was very nicely decorated. Parking was good and the hotel was very clean.  The hot breakfast was good.  The hotel is in a very busy area but there are many stores, shops, and restaurants nearby.  There is a Kohls, Walmart, Chick fil A, Raising Canes, etc.  We would certainly stay here again!!!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r477773027-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>477773027</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Clean, Roomy, Comfy</t>
+  </si>
+  <si>
+    <t>We just stayed a few nights at another hotel in Houston while getting tests at MD Anderson and it was not such a great experience, so we looked for another option.  We decided to stay at Comfort Suites in Pearland and that was a very wise choice!  We had a king executive suite (they offer a medical discount).  The room was very spacious with a couch, chair, flat screen tv, desk area with fridge and microwave.  the best part of the room was the bed - it was the best mattress we've ever slept on in a hotel!  The room was clean and there were lots of lamps and outlets available all around the room.  the bathroom vanity was trendy and clean with lots of extra towels.  The lobby doesn't look overly fancy, but the staff (night and day) were both very friendly.  There was complimentary snacks,wine, and beer in the evening and a great complimentary breakfast in the morning with fried eggs, sausage, biscuits, gravy, waffles, fresh fruit, two types of yogurt (including Greek), granola, almonds, pastries, and cereals.  We were blown away at all the amenities.  We will always stay there when going back for treatment at MD Anderson.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We just stayed a few nights at another hotel in Houston while getting tests at MD Anderson and it was not such a great experience, so we looked for another option.  We decided to stay at Comfort Suites in Pearland and that was a very wise choice!  We had a king executive suite (they offer a medical discount).  The room was very spacious with a couch, chair, flat screen tv, desk area with fridge and microwave.  the best part of the room was the bed - it was the best mattress we've ever slept on in a hotel!  The room was clean and there were lots of lamps and outlets available all around the room.  the bathroom vanity was trendy and clean with lots of extra towels.  The lobby doesn't look overly fancy, but the staff (night and day) were both very friendly.  There was complimentary snacks,wine, and beer in the evening and a great complimentary breakfast in the morning with fried eggs, sausage, biscuits, gravy, waffles, fresh fruit, two types of yogurt (including Greek), granola, almonds, pastries, and cereals.  We were blown away at all the amenities.  We will always stay there when going back for treatment at MD Anderson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r476604648-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>476604648</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Excellant all the way around</t>
+  </si>
+  <si>
+    <t>We stayed two nights and upon check in we felt welcomed. Janice was at the desk and made us feel right at home. The hotel was very clean and they were actually cleaning the carpet in the hallway on our floor when we arrived. We asked about the laundry facilities and we were given a room near them. The breakfast was stocked and they even had a nightly light meal. They are just off the main road but convenient to everything. I would recommend giving them a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort Suites ...  , General Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>We stayed two nights and upon check in we felt welcomed. Janice was at the desk and made us feel right at home. The hotel was very clean and they were actually cleaning the carpet in the hallway on our floor when we arrived. We asked about the laundry facilities and we were given a room near them. The breakfast was stocked and they even had a nightly light meal. They are just off the main road but convenient to everything. I would recommend giving them a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r467709636-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>467709636</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super bowl weekend </t>
+  </si>
+  <si>
+    <t>This hotel was a bit out of the way from all the main attractions for super bowl but was super convenient because it is located around the corner from tons of places to eat and a gym which helped out a lot. The staff was super helpful and attentive even though they seem a bit understaffed because every time I would call down for some thing I would have to come down and get it because there was only one person on staff. I would recommend this hotel to any one in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This hotel was a bit out of the way from all the main attractions for super bowl but was super convenient because it is located around the corner from tons of places to eat and a gym which helped out a lot. The staff was super helpful and attentive even though they seem a bit understaffed because every time I would call down for some thing I would have to come down and get it because there was only one person on staff. I would recommend this hotel to any one in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r443269010-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>443269010</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Solid.  Pretty good for more of a budget hotel</t>
+  </si>
+  <si>
+    <t>i stayed here because of the price.  i needed two rooms that were big.  i think i paid $70 bucks per night.  there was nothing wrong with the hotel (though they were reflooring the lobby, which was a bit annoying).  The rooms were fine, the rooms were clean.  it's not necessarily updated but not bad.  it's just a solid budget hotel.  it definitely is more of a blue collar type place during the week.  If that's not your thing, you may want to pick a different spot.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r440682348-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>440682348</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel I ever stayed at</t>
+  </si>
+  <si>
+    <t>OK never ever stay here. My parents had roaches in their bathroom. The lights in the room I shared with my sisters kept going out. We checked in on a Wednesday and soon we get inside the room nothing would come on. This continued until we checked out Saturday. They didn't offer to move us until that Friday which was far too late since we reported the outrages several times already. Then they didn't seem that all concerned. Didn't even bother to call and check on us. Then the renovation process almost made my mom fall because they had a big chunk of carpet that was like a speed bump right beside the elevator. Do not I repeat do not waste your money here.MoreShow less</t>
+  </si>
+  <si>
+    <t>OK never ever stay here. My parents had roaches in their bathroom. The lights in the room I shared with my sisters kept going out. We checked in on a Wednesday and soon we get inside the room nothing would come on. This continued until we checked out Saturday. They didn't offer to move us until that Friday which was far too late since we reported the outrages several times already. Then they didn't seem that all concerned. Didn't even bother to call and check on us. Then the renovation process almost made my mom fall because they had a big chunk of carpet that was like a speed bump right beside the elevator. Do not I repeat do not waste your money here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r440356860-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>440356860</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay!</t>
+  </si>
+  <si>
+    <t>This hotel was clean, reasonably priced, in a great location, and had friendly staff.  I liked that the location was away from the freeways, but quick and easy access. They are replacing some tile in the hallways, but wasn't a problem. Our room had already been updated and had all the nice amenities you would expect. Will definitely stay here again when in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r412258402-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>412258402</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable and welcoming</t>
+  </si>
+  <si>
+    <t>We checked in late at night just needing a night to rest. The beds were so so comfortable. The breakfast was very good, they even had blueberry flavored waffle mix in addition to the regular. The orange juice was the best I've ever had at a complimentary hotel breakfast. Front desk staff at night and the morning and the breakfast attendant were all courteous and friendly. I would stay here again and recommend it to anyone.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r411830360-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>411830360</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Very Nice!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitely a good place to stay. The staff was very nice and friendly. I arrived around 12 and although check in was later I was able to get in my room early to get to my event for 2. I would recommend this hotel to others if they are ever in Pearland. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r397686311-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>397686311</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Stayed at this location Sunday-Thursday for several weeks.  Great room, great staff, super service!!!  From the time you arrive, staff is very friendly and helpful.  Janice, David and Samantha are awesome employees always willing to assist.  Good location near many restaraunts. Thank you!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r356541407-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>356541407</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I've stayed at the Comfort Suites-Pearland over 40 times in the last 2 years.  These people treat you like family and make you feel at home.  No netter place to stay in Pearland.  The management team host a Managers Reception on Tuesday and Wednesday. and the food is exceptional. Most Choice Hotels accommodate Choice Members with this little extra treat.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r355182374-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>355182374</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Stayed Three Nights for Houston Livestock Show</t>
+  </si>
+  <si>
+    <t>The rooms were nice size and everything was clean and great.  The staff was very friendly.  Outside pool and no hot tub.  The outside pool even in Houston, Texas is probably only use able May to Sept.  Park toward the end of the hotel on the side.  The pool is an obstacle of the back parking lot to the rear access door.  It is real pain when it is raining</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r348144254-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>348144254</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect </t>
+  </si>
+  <si>
+    <t>We stayed for 1 night, and it was wonderful. Prior to arrival, I had spoke with Samantha who is one of the managers and she offered to upgrade my room to a king executive suite free of charge, because I had been inquiring multiple times about having a corner room. I was really impressed that she honored that. The shower was great, I love the fact that you can change the different speeds and styles of the shower head. The bed was very comfortable, clean, and soft. I loved the free parking also. I wasn't really to big on the breakfast but hey I'm not much of a breakfast person anyway. If I ever come to this specific side of town again, I definitely know where to book. I was very pleased with the hospitality, the cleanness, the quietness, and the overall feeling of relaxation.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night, and it was wonderful. Prior to arrival, I had spoke with Samantha who is one of the managers and she offered to upgrade my room to a king executive suite free of charge, because I had been inquiring multiple times about having a corner room. I was really impressed that she honored that. The shower was great, I love the fact that you can change the different speeds and styles of the shower head. The bed was very comfortable, clean, and soft. I loved the free parking also. I wasn't really to big on the breakfast but hey I'm not much of a breakfast person anyway. If I ever come to this specific side of town again, I definitely know where to book. I was very pleased with the hospitality, the cleanness, the quietness, and the overall feeling of relaxation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r317235806-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>317235806</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel Stay Ever.</t>
+  </si>
+  <si>
+    <t>Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the...Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the front desk with the confirmation email and she was being very rude and told us that we were only booked that night only and so I handed her my phone to show her the email and she looked at it for a second and then slammed my phone onto the counter and said we needed to pay for an extra night. I would've if it wasn't for her being very unprofessional and rude about it. So I called the Comfort suites customer service line and told them what had happened and they basically said there was nothing they could but charge us the night despite my front desk experience. The only manager on duty was the one being unprofessional so I told the lady over the phone that I wanted to check out and this is ridiculous. The manager was waiting in the hallway and asked if we had called the property managers and I had said yes because she was being very rude. After that she acted like nothing had ever happened and she said she would bring it to the general managers attention about this whole confusion. I never heard from the general manager. This had essentially ruined the rest of the trip for me and I no longer felt welcomed in the hotel. It is safe to say i'll never return to this or ANY comfort suites. I think it could've been handled more nicely and efficiently than it was.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the...Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the front desk with the confirmation email and she was being very rude and told us that we were only booked that night only and so I handed her my phone to show her the email and she looked at it for a second and then slammed my phone onto the counter and said we needed to pay for an extra night. I would've if it wasn't for her being very unprofessional and rude about it. So I called the Comfort suites customer service line and told them what had happened and they basically said there was nothing they could but charge us the night despite my front desk experience. The only manager on duty was the one being unprofessional so I told the lady over the phone that I wanted to check out and this is ridiculous. The manager was waiting in the hallway and asked if we had called the property managers and I had said yes because she was being very rude. After that she acted like nothing had ever happened and she said she would bring it to the general managers attention about this whole confusion. I never heard from the general manager. This had essentially ruined the rest of the trip for me and I no longer felt welcomed in the hotel. It is safe to say i'll never return to this or ANY comfort suites. I think it could've been handled more nicely and efficiently than it was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r282793106-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>282793106</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>3/5 But 5/5 for effort</t>
+  </si>
+  <si>
+    <t>The hotel has a nice look to it and I'd gladly stay again. The staff I spoke with over the phone and at check in were excellent. Here's the breakdown...Pros:Great staffRooms are pretty good sizeFree internet is unusually fastFridge, microwave, and good charging station by the bedsFree hot breakfastNoon checkoutCons:Floor in our room was noticeably unevenTV is a little small for the roomA/C could have been betterLike I said, we'd stay here again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r279998777-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>279998777</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>New and nice</t>
+  </si>
+  <si>
+    <t>Check-in was quick and easy.  Room was large and bed was comfortable.  nice to have a seating area with couch and coffee table.  Breakfast was very good.  Staff friendly and helpful.  Outdoor pool looks great but was raining so we didn't go in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r253436398-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>253436398</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Newer Comfort Suites</t>
+  </si>
+  <si>
+    <t>Nice newer C.S. The staff is super friendly. They make you feel good about staying with them. Up by the front desk is a snack lovers dream. Nice assortment of snacks but the thing that got me was the pint sized Blue Bell ice creams for sale. For you people outside of Texas, Blue Bell is the best. You won't be disappointed. Now back to the hotel. Nice new modern décor, big rooms, frig, microwave, USB/AC outlets, soft/firm pillow selection. Internet was slow for me but got my stuff done. Close by are all kinds of stores and restaurants. Would I stay here again? In a heart beat.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r231338603-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>231338603</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Very nice.. Room exceeded my expectations. It was very clean, bed was extremely comfortable and the staff was very accommodating. Breakfast area clean with nice breakfast and the evening refreshments were great.. Could have found a cheaper hotel, but the price is very much worth it..MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort Suites P, General Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Very nice.. Room exceeded my expectations. It was very clean, bed was extremely comfortable and the staff was very accommodating. Breakfast area clean with nice breakfast and the evening refreshments were great.. Could have found a cheaper hotel, but the price is very much worth it..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r230212726-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>230212726</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Super clean!</t>
+  </si>
+  <si>
+    <t>Nothing but good all around. Room was super clean with plenty of towels. Beds were super comfortable with both soft &amp; firm pillows to choose from. Staff was helpful &amp; friendly, manager even offered to get me breakfast even after it was over &amp; they were cleaning up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nothing but good all around. Room was super clean with plenty of towels. Beds were super comfortable with both soft &amp; firm pillows to choose from. Staff was helpful &amp; friendly, manager even offered to get me breakfast even after it was over &amp; they were cleaning up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r222497594-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>222497594</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>OMG it was such a bad hotel. I was screamed at by hotel guest, hotel staff, and feared for my life. Such a horrible place I can't believe it is rated as well as it is do not stay here. Good golly the staff need to leave, they are not good for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>CSTX952, General Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>OMG it was such a bad hotel. I was screamed at by hotel guest, hotel staff, and feared for my life. Such a horrible place I can't believe it is rated as well as it is do not stay here. Good golly the staff need to leave, they are not good for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r216202784-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>216202784</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Good room, good hotel, good staff</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located close to 288 2 blocks north of Highway 518 . The room is a little larger then normal which makes it nice for a week long stay. The bed was very comfortable, the water pressure was good, and the internet speed was way better then normal for a hotel. Normal is about 3 Mbps and I measure 10 + Mbps. The furnishings and decor were not quite large an upscale Marriott Courtyard or Hyatt Place but for the price they were pretty darn good and very comfortable.  breakfast is well stocked and there was plenty of room to sit and eat. Theonly minor issue was that the oatmeal is instant only.Staff were friendly and cheerful.I'll stay here again.I hope this helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located close to 288 2 blocks north of Highway 518 . The room is a little larger then normal which makes it nice for a week long stay. The bed was very comfortable, the water pressure was good, and the internet speed was way better then normal for a hotel. Normal is about 3 Mbps and I measure 10 + Mbps. The furnishings and decor were not quite large an upscale Marriott Courtyard or Hyatt Place but for the price they were pretty darn good and very comfortable.  breakfast is well stocked and there was plenty of room to sit and eat. Theonly minor issue was that the oatmeal is instant only.Staff were friendly and cheerful.I'll stay here again.I hope this helps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r215572488-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>215572488</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Quiet, clean, and best plugin for electronics</t>
+  </si>
+  <si>
+    <t>We (3 adults) scheduled this hotel to attend a video conference the next day.  Though the hotel was doing some renovation (new light fixtures), the room was quite comfortable with a microwave and refrigerator, a comfortable bed and sleeper sofa for our third person.  The absolute BEST feature was the charger/plug in for electronics!--no crawling around under a table to find the plugs.  We were treated to "supper" of pulled pork sandwiches and salad compliments of the hotel.  Their hot breakfast of 2 kinds of eggs, sausage, cereal, waffles, yogurt, sweet rolls, English muffins, and the best orange juice that was NOT watered down.  The desk clerk, Janice, was most helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>We (3 adults) scheduled this hotel to attend a video conference the next day.  Though the hotel was doing some renovation (new light fixtures), the room was quite comfortable with a microwave and refrigerator, a comfortable bed and sleeper sofa for our third person.  The absolute BEST feature was the charger/plug in for electronics!--no crawling around under a table to find the plugs.  We were treated to "supper" of pulled pork sandwiches and salad compliments of the hotel.  Their hot breakfast of 2 kinds of eggs, sausage, cereal, waffles, yogurt, sweet rolls, English muffins, and the best orange juice that was NOT watered down.  The desk clerk, Janice, was most helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r210799194-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>210799194</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent hotel. Wi-Fi subpar. </t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on Father's day as they were offering a great rate on rooms at $94 for the night. The hotel is pretty clean. The fitness center is small but you can get a good cardiovascular workout in there.  Our room was on the 3rd floor and it was very spacious. My only issue with the room was the odor and the A/C. It smelled like chemicals when we walked in. I loved that initially because I knew it had been cleaned. The odor just seemed to linger longer than normal because the air conditioner had not been turned on prior to our arrival. Once we got some air circulating it was much better. The air conditioner did not cut off automatically even though it was set to auto. It got really cold in our room so we had to keep turning it off. I am assuming this is why it was off when we got there. The decor in the room and lobby was nice. The front desk clerk was very pleasant. The WiFi in the room was super slow! If you are a business traveler who likes to work in your room, this may not be the hotel for you. There is a business area on site as well though so that's an alternative. I'm sure the staff would have switched our room if we asked but we didn't feel like hassling...My husband and I stayed at this hotel on Father's day as they were offering a great rate on rooms at $94 for the night. The hotel is pretty clean. The fitness center is small but you can get a good cardiovascular workout in there.  Our room was on the 3rd floor and it was very spacious. My only issue with the room was the odor and the A/C. It smelled like chemicals when we walked in. I loved that initially because I knew it had been cleaned. The odor just seemed to linger longer than normal because the air conditioner had not been turned on prior to our arrival. Once we got some air circulating it was much better. The air conditioner did not cut off automatically even though it was set to auto. It got really cold in our room so we had to keep turning it off. I am assuming this is why it was off when we got there. The decor in the room and lobby was nice. The front desk clerk was very pleasant. The WiFi in the room was super slow! If you are a business traveler who likes to work in your room, this may not be the hotel for you. There is a business area on site as well though so that's an alternative. I'm sure the staff would have switched our room if we asked but we didn't feel like hassling them about it and it worked out fine. Our issue shouldn't deter anyone from staying as it is a nice hotel. However, if you are a person who needs a great Wi-Fi connection then I would definitely advise you to go elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on Father's day as they were offering a great rate on rooms at $94 for the night. The hotel is pretty clean. The fitness center is small but you can get a good cardiovascular workout in there.  Our room was on the 3rd floor and it was very spacious. My only issue with the room was the odor and the A/C. It smelled like chemicals when we walked in. I loved that initially because I knew it had been cleaned. The odor just seemed to linger longer than normal because the air conditioner had not been turned on prior to our arrival. Once we got some air circulating it was much better. The air conditioner did not cut off automatically even though it was set to auto. It got really cold in our room so we had to keep turning it off. I am assuming this is why it was off when we got there. The decor in the room and lobby was nice. The front desk clerk was very pleasant. The WiFi in the room was super slow! If you are a business traveler who likes to work in your room, this may not be the hotel for you. There is a business area on site as well though so that's an alternative. I'm sure the staff would have switched our room if we asked but we didn't feel like hassling...My husband and I stayed at this hotel on Father's day as they were offering a great rate on rooms at $94 for the night. The hotel is pretty clean. The fitness center is small but you can get a good cardiovascular workout in there.  Our room was on the 3rd floor and it was very spacious. My only issue with the room was the odor and the A/C. It smelled like chemicals when we walked in. I loved that initially because I knew it had been cleaned. The odor just seemed to linger longer than normal because the air conditioner had not been turned on prior to our arrival. Once we got some air circulating it was much better. The air conditioner did not cut off automatically even though it was set to auto. It got really cold in our room so we had to keep turning it off. I am assuming this is why it was off when we got there. The decor in the room and lobby was nice. The front desk clerk was very pleasant. The WiFi in the room was super slow! If you are a business traveler who likes to work in your room, this may not be the hotel for you. There is a business area on site as well though so that's an alternative. I'm sure the staff would have switched our room if we asked but we didn't feel like hassling them about it and it worked out fine. Our issue shouldn't deter anyone from staying as it is a nice hotel. However, if you are a person who needs a great Wi-Fi connection then I would definitely advise you to go elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r207348940-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>207348940</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>I love the hotel although it is located far from Downtown Houston</t>
+  </si>
+  <si>
+    <t>I was lucky enough to get a suite room. The room is literally huge and you can exercise and run inside as much as it is big!!! Room is very clean and provides you with all the necessary utilities and facilities. Breakfast: Normal, nothing special but gets boring by time.Staff: Very friendlyLocation: Far from Houston, and nothing much to do, but you have quite a few restaurants and shopping stores around.Would I recommend it? Yes i will recommend it, especially if you have work south of Houston.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r205445898-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205445898</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Very accommodating staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was very helpful as I was chaperoning a team of high school athletes. We were there for two nights. The staff even allowed us to use the breakfast area for dinner that we had catered by Olive Garden. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r190196918-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>190196918</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel one night and if I ever go back to this area of Texas I will stay here again.  The room (double bed) was large, clean, comfortable, and quiet.  The bathroom was well stocked with towels.  The staff was great as well, I wish I got the name of the lady that checked us in on Saturday evening, she was helpful and very friendly.   She helped us to try and locate a route from Pearland towards San Antonio that would have us avoid the Tollways in Houston.  If you haven't been to Houston, be prepared for these Tollways, especially if you are renting a car.  The breakfast was very good as well, nice selection.  Thought this hotel was worth the price we paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel one night and if I ever go back to this area of Texas I will stay here again.  The room (double bed) was large, clean, comfortable, and quiet.  The bathroom was well stocked with towels.  The staff was great as well, I wish I got the name of the lady that checked us in on Saturday evening, she was helpful and very friendly.   She helped us to try and locate a route from Pearland towards San Antonio that would have us avoid the Tollways in Houston.  If you haven't been to Houston, be prepared for these Tollways, especially if you are renting a car.  The breakfast was very good as well, nice selection.  Thought this hotel was worth the price we paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r188588698-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>188588698</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>All that you could want</t>
+  </si>
+  <si>
+    <t>It all started with the initial online reservation when I inadvertently reserved two rooms. I called the hotel, talked to a Samantha and had the second reservation cancelled. This was a special no cancel reservation. Next came the charge card bill with the second charge. Again, a call to Samantha who removed the billing. The hotel was clean, quiet and very nice. Staff were great, room selection great. When we returned home, my wife noted that she left some of her makeup in the hotel room. Again a call to Samantha who promptly fond the missing article and mailed it to us.Truly a great experience all around.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>CSTX952, Front Office Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded January 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2014</t>
+  </si>
+  <si>
+    <t>It all started with the initial online reservation when I inadvertently reserved two rooms. I called the hotel, talked to a Samantha and had the second reservation cancelled. This was a special no cancel reservation. Next came the charge card bill with the second charge. Again, a call to Samantha who removed the billing. The hotel was clean, quiet and very nice. Staff were great, room selection great. When we returned home, my wife noted that she left some of her makeup in the hotel room. Again a call to Samantha who promptly fond the missing article and mailed it to us.Truly a great experience all around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r184362239-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>184362239</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Return visit</t>
+  </si>
+  <si>
+    <t>Return visit. One night stay while on business. Enjoyable stay. Hot breakfast was typical, and good. Front desk had my reservation and was checked in quickly. Last visit there had been a few 18 wheelers staying there, and some repairs being done in the parking lot, but not disturbing. None this time.  Free snacks were available in the breakfast nook during a break in the sports action that night.  Have stayed here in the past, and probably would in the future.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r163383847-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>163383847</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Overall it was a good stay</t>
+  </si>
+  <si>
+    <t>My wife and I checked in and the front desk lady was very nice and caring. We got to our room and the bed was comfortable, the ac was kind of loud but not a big deal. Our main issue was we were short a towel and when we asked the maid for a towel she was confused. She did not speak english very well, but we got two towels and breakfast was better then average. I recommend this hotel.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r161486978-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>161486978</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Best of the Best Comfort Suites! Super Staff!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Pearland Comfort Suites recently.  Manny Patel the Manager greeted us moment one and was their daily with the same enthusiasm and heart for service throughout the stay.  He is a 'Great Ambassador' for Comfort Suites.  This hotel SERVES their guests.  When we needed some things to be shipped....boom...the front desk helped cheerfully.  When we needed a cab...boom...one was there shortly.  When we asked restaurant suggestions or directions...boom...they knew the place or way AND had coupons ready.Rooms were large and very clean.  Free WiFi and fast.  Nice desk area for any computer hookup and use.   Free Breakfast + Coffee and Tea (I am a tea lover!) throughout the day.   Price very fair.  Pool area nice.  Workout room kept us tone. :-) Area has good restaurants choices.  Shopping nearby.  A great family friendly hotel.  Pearland, formerly out in the country and now part of Houston metro has a small town friendliness and feel while still connected to the big city. We will visit them again.Foremost...General Manager Manny stands out and give him a high five from the Snell's from Kansas City when you check in!  He is a first class guy and Comfort Suites should use him as their business role model.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Pearland Comfort Suites recently.  Manny Patel the Manager greeted us moment one and was their daily with the same enthusiasm and heart for service throughout the stay.  He is a 'Great Ambassador' for Comfort Suites.  This hotel SERVES their guests.  When we needed some things to be shipped....boom...the front desk helped cheerfully.  When we needed a cab...boom...one was there shortly.  When we asked restaurant suggestions or directions...boom...they knew the place or way AND had coupons ready.Rooms were large and very clean.  Free WiFi and fast.  Nice desk area for any computer hookup and use.   Free Breakfast + Coffee and Tea (I am a tea lover!) throughout the day.   Price very fair.  Pool area nice.  Workout room kept us tone. :-) Area has good restaurants choices.  Shopping nearby.  A great family friendly hotel.  Pearland, formerly out in the country and now part of Houston metro has a small town friendliness and feel while still connected to the big city. We will visit them again.Foremost...General Manager Manny stands out and give him a high five from the Snell's from Kansas City when you check in!  He is a first class guy and Comfort Suites should use him as their business role model.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r160588487-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>160588487</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Great little 2 start with excellent staff  that provide a 5 star service</t>
+  </si>
+  <si>
+    <t>The attention to detail and friendliness of all the staff really make the stay.Manny the manager was excellent and so helpful, on the first morning I had to collect a hire car the local taxi company was busy so Manny dropped me to get the car. That's what I call service.If you want to be where the Texans live then this hotel is perfect if you want to be in the tourist area its not for you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r146261668-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>146261668</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Comfort Suites Pearland Texas</t>
+  </si>
+  <si>
+    <t>We arrived around 7 pm on 11-22-2012.I reserved a third floor room on the right(east)side facing the nursing home.The other side faces a daycare and playground-which would only bother people who were working at night-if at all.It was clean and quiet.They replaced the raggedy luggage carts with a heavy duty cart that was the best I have seen.For some reason(or none)they gave me a second floor room.Luckily,there were only 8-10 rooms occupied,so it was quiet as a mouse.Thanksgiving morning the eggs were too long in the warmer and had to be scraped out with a spatula.The next day was much more crowded and the eggs were better because the turnover was quick.There is a ton of shopping and restaurants nearby as well.All in all,another nice stay.We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We arrived around 7 pm on 11-22-2012.I reserved a third floor room on the right(east)side facing the nursing home.The other side faces a daycare and playground-which would only bother people who were working at night-if at all.It was clean and quiet.They replaced the raggedy luggage carts with a heavy duty cart that was the best I have seen.For some reason(or none)they gave me a second floor room.Luckily,there were only 8-10 rooms occupied,so it was quiet as a mouse.Thanksgiving morning the eggs were too long in the warmer and had to be scraped out with a spatula.The next day was much more crowded and the eggs were better because the turnover was quick.There is a ton of shopping and restaurants nearby as well.All in all,another nice stay.We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r145839042-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>145839042</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Clean and Peaceful</t>
+  </si>
+  <si>
+    <t>We have stayed here several times.  The staff is really nice and the rooms are clean and the beds are comfortable.  The TV channels that they have are terrible.  They don't even have the most basic channels.  No Golf, HGTV very disappointing.  We stay in a hotel for business at least 25 days out of the month and have been all over.  We stayed here because it was convenient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r133927399-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>133927399</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>The first night in the room, my wife woke me up to an infestation of bed bugs. They were all on my daughters pillow. it was horrible. i called the front desk to report it and they put me on hold for a long time. i hung up and got one of the bed bugs and took it down stairs to show it to the clerk. when i made it to the front desk she was on the computer looking to see what a bed bug looks like. She did give me another room across the hall from the first. So here i go at 2:30 in the morning changing my family to another room. needless to say couldn't sleep rest of night.The next morning we saw a exterminator going into the room to spray. I will never stay there again. And if you choose to WATCH OUT FOR THE BED BUGS. And on top of it all they only gave me a $40.00 discount. i also have one of the larger bed bugs as a reminder. Tried calling the general manager who now refuse to return my calls.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The first night in the room, my wife woke me up to an infestation of bed bugs. They were all on my daughters pillow. it was horrible. i called the front desk to report it and they put me on hold for a long time. i hung up and got one of the bed bugs and took it down stairs to show it to the clerk. when i made it to the front desk she was on the computer looking to see what a bed bug looks like. She did give me another room across the hall from the first. So here i go at 2:30 in the morning changing my family to another room. needless to say couldn't sleep rest of night.The next morning we saw a exterminator going into the room to spray. I will never stay there again. And if you choose to WATCH OUT FOR THE BED BUGS. And on top of it all they only gave me a $40.00 discount. i also have one of the larger bed bugs as a reminder. Tried calling the general manager who now refuse to return my calls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r124222113-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>124222113</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>Jan 28- Feb 4, 2012 stay</t>
+  </si>
+  <si>
+    <t>Great property.  Friendly and helpful staff. Very close to many restaurants and shopping locations with access to these via residential streets.  Room very nice.  Easy to get on freeway and to Hobby airport.  Very nice bedding and towels.  Staff talked with us during breakfast and upon each exit and reentry.  Offered helpful tips on local spots to eat.  Really enjoyed our week. Had local maps available with restaurants and locations listed.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r121059216-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>121059216</t>
+  </si>
+  <si>
+    <t>11/26/2011</t>
+  </si>
+  <si>
+    <t>We stayed the nights of 11/23/11 and 11/24/11</t>
+  </si>
+  <si>
+    <t>Check-in was easy.The luggage carts were falling apart.The suite was clean-both bath and bedroom.The bath had a lot of fluffy towels.We were on the second of three floors facing east towards the nursing home.Generally,there was dead silence.It was probably the quietest stay I have ever had.The breakfast featured eggs,bacon or sausage,waffles,cereals,fruits,breads, yogurt,juices,milk,-but...no oatmeal.Overall,it was peaceful,quiet and clean.I would recommend this one year old Hotel.There is a lot of food nearby,along with easy access to the southwest Houston area.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r120203782-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120203782</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Great Place to Stay if Breakfast isn't important</t>
+  </si>
+  <si>
+    <t>The front desk service and room was satisfactory:  the clerk was courteous and efficient, the room clean and large.  We went down to the breakfast bar about 8 a.m.  It was NOT crowded.  We had to ask for plates to put our food on, the eggs and sausage were cold, and there was no pepper available.  When it was requested it was said to be unavailable.  Milk and juices were in pitchers which meant they did not remain chilled and tasted room temp.  A refrigerated juice and milk dispenser (like we've used at other Comforts) could be installed to solve this issue.  There was yogurt available in the refrigerated unit for butter, boiled eggs, and cream cheese.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk service and room was satisfactory:  the clerk was courteous and efficient, the room clean and large.  We went down to the breakfast bar about 8 a.m.  It was NOT crowded.  We had to ask for plates to put our food on, the eggs and sausage were cold, and there was no pepper available.  When it was requested it was said to be unavailable.  Milk and juices were in pitchers which meant they did not remain chilled and tasted room temp.  A refrigerated juice and milk dispenser (like we've used at other Comforts) could be installed to solve this issue.  There was yogurt available in the refrigerated unit for butter, boiled eggs, and cream cheese.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1354,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1386,2719 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>190</v>
+      </c>
+      <c r="X24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>190</v>
+      </c>
+      <c r="X25" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>205</v>
+      </c>
+      <c r="X26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>213</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>251</v>
+      </c>
+      <c r="X33" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" t="s">
+        <v>294</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>302</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>308</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>310</v>
+      </c>
+      <c r="J43" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s">
+        <v>313</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>308</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_125.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_125.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r583929006-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1484269</t>
+  </si>
+  <si>
+    <t>583929006</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Awakened nightly</t>
+  </si>
+  <si>
+    <t>We were awakened in the middle of the night by a loud, piercing fire alarm 3 out of the 5 nights we stayed there.  It is reasonable to expect to be secure and to be able to sleep when you rent a hotel room; but this expectation wasn’t met for us since we were awakened in the middle of the night wondering if there was a fire and couldn’t go back to sleep.  I asked to discuss this with the manager; but he never contacted me.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r579950130-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>579950130</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>Stayed two nights in this hotel while traveling to Houston on business. Safe location close to lots of chain type restaurants. Close to a Chick fil A which is always a bonus if breakfast isn’t great.  Breakfast was nothing special and a bit sparse. Front desk check in was friendly. Parking is not great — most of it is behind the hotel and quite a hike. Not the best when traveling alone and returning late at night. Parking lot needs better lighting and a better back entrance. Room was clean and quiet. Bed was ok — but has weird small pillows instead of normal sized pillows. The tv situation was ridiculous. You should not need a degree to operate a remote. It’s the most complicated I’ve ever seen (see pic below) with two power buttons and it asks you questions when you turn it on such as “Live TV or satellite?” ummmm — I don’t know? Both? Ridiculous. If it has to be this bad please include a card with basic instructions. I eventually gave up when it asked me to choose a new satellite direction.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed two nights in this hotel while traveling to Houston on business. Safe location close to lots of chain type restaurants. Close to a Chick fil A which is always a bonus if breakfast isn’t great.  Breakfast was nothing special and a bit sparse. Front desk check in was friendly. Parking is not great — most of it is behind the hotel and quite a hike. Not the best when traveling alone and returning late at night. Parking lot needs better lighting and a better back entrance. Room was clean and quiet. Bed was ok — but has weird small pillows instead of normal sized pillows. The tv situation was ridiculous. You should not need a degree to operate a remote. It’s the most complicated I’ve ever seen (see pic below) with two power buttons and it asks you questions when you turn it on such as “Live TV or satellite?” ummmm — I don’t know? Both? Ridiculous. If it has to be this bad please include a card with basic instructions. I eventually gave up when it asked me to choose a new satellite direction.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r576639093-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>1484269</t>
-  </si>
-  <si>
     <t>576639093</t>
   </si>
   <si>
@@ -216,6 +258,45 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r521346217-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>521346217</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slight smells and inexperienced staff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was booked because of the flood. No problem with that. Upon checking in, we were told that we were one room short even though we had reserved multiple rooms. The hallways smelled like an old closed up hotel. Rooms smelled a little better. While there, any issues we had we were told to speak with the manager. Seemed like the staff didn't know how to do a lot of things. Maybe it is by design but aggravating. I would stay again if I was in a pinch. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r515523126-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>515523126</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>07-29-2017 stay</t>
+  </si>
+  <si>
+    <t>I arrived just past midnight but was very impressed with check in staff. Check in staff was very friendly and helpful given the fact that it was late when I arrived. I had to use the business center to print out documents and was impressed that I was able to print my documents without and issues. The room was clean and comfortable and the price for the stay wasn't expensive at all given that it was a last minute booking.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r509490382-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -231,9 +312,6 @@
     <t xml:space="preserve">Staff was great! Took time to get to know us upon check in and check on my daughters swim meet throughout weekend which I thought was very sweet! The room was very clean and comfortable and breakfast was great each morning. The little store where you can buy snacks was a nice treat when her sweet tooth hit and she wanted ice cream. We would definitely stay again. Staff and clean facilities always bring us back again!!! </t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r502933258-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -270,6 +348,42 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r492326724-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>492326724</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Super Hotel with Extraordinary Staff!!</t>
+  </si>
+  <si>
+    <t>We live in Louisiana and my granddaughter has been fighting Cancer and being treated at Texas Children Hospital for (Leukemia AML and HLH of the Liver) and Cheomtherapy induced cardiomyopathy (Heart condition) since 8 days after her 4th birthday. We stay at the Comfort Suites in Pearland Texas on Miller Ranch Road. Ms. Janis is one of Gods Angel because if it is a scheduled appointment or a unexpected emergency and we have to drive over 238 miles one way to get here she makes sure we always have a room and all the accommodations we need or what the Doctors said the baby has to have for her to get better or so she don't have to stay in the Hospital.  She is always there for us when we call and she will call us to make sure we have everything we need and if there is anything she can do to help. I work for the government and traveled a lot which required me and my family had to stay in a lot of Hotels and we have never met a employee who had this much compassion for people whom she never known or met until they came to this hotel. We see this every time we are here. Ms. Janis on behalf of all the families with sick family members or who is fighting for their life we say, Thank You! the Hunt and Vincent family.MoreShow less</t>
+  </si>
+  <si>
+    <t>We live in Louisiana and my granddaughter has been fighting Cancer and being treated at Texas Children Hospital for (Leukemia AML and HLH of the Liver) and Cheomtherapy induced cardiomyopathy (Heart condition) since 8 days after her 4th birthday. We stay at the Comfort Suites in Pearland Texas on Miller Ranch Road. Ms. Janis is one of Gods Angel because if it is a scheduled appointment or a unexpected emergency and we have to drive over 238 miles one way to get here she makes sure we always have a room and all the accommodations we need or what the Doctors said the baby has to have for her to get better or so she don't have to stay in the Hospital.  She is always there for us when we call and she will call us to make sure we have everything we need and if there is anything she can do to help. I work for the government and traveled a lot which required me and my family had to stay in a lot of Hotels and we have never met a employee who had this much compassion for people whom she never known or met until they came to this hotel. We see this every time we are here. Ms. Janis on behalf of all the families with sick family members or who is fighting for their life we say, Thank You! the Hunt and Vincent family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r481060786-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>481060786</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>stay here when you are in Pearland. Everyone is so nice and always pleasant. You have dinner on Tuesday and Wednesday night. Food is always good. If you have any problems they will fix it and you will be happy. Janice and Manny are wonderful and helpful. Stay there before you go any where else you won't be disappointed.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r477773027-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -285,12 +399,6 @@
     <t>We just stayed a few nights at another hotel in Houston while getting tests at MD Anderson and it was not such a great experience, so we looked for another option.  We decided to stay at Comfort Suites in Pearland and that was a very wise choice!  We had a king executive suite (they offer a medical discount).  The room was very spacious with a couch, chair, flat screen tv, desk area with fridge and microwave.  the best part of the room was the bed - it was the best mattress we've ever slept on in a hotel!  The room was clean and there were lots of lamps and outlets available all around the room.  the bathroom vanity was trendy and clean with lots of extra towels.  The lobby doesn't look overly fancy, but the staff (night and day) were both very friendly.  There was complimentary snacks,wine, and beer in the evening and a great complimentary breakfast in the morning with fried eggs, sausage, biscuits, gravy, waffles, fresh fruit, two types of yogurt (including Greek), granola, almonds, pastries, and cereals.  We were blown away at all the amenities.  We will always stay there when going back for treatment at MD Anderson.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We just stayed a few nights at another hotel in Houston while getting tests at MD Anderson and it was not such a great experience, so we looked for another option.  We decided to stay at Comfort Suites in Pearland and that was a very wise choice!  We had a king executive suite (they offer a medical discount).  The room was very spacious with a couch, chair, flat screen tv, desk area with fridge and microwave.  the best part of the room was the bed - it was the best mattress we've ever slept on in a hotel!  The room was clean and there were lots of lamps and outlets available all around the room.  the bathroom vanity was trendy and clean with lots of extra towels.  The lobby doesn't look overly fancy, but the staff (night and day) were both very friendly.  There was complimentary snacks,wine, and beer in the evening and a great complimentary breakfast in the morning with fried eggs, sausage, biscuits, gravy, waffles, fresh fruit, two types of yogurt (including Greek), granola, almonds, pastries, and cereals.  We were blown away at all the amenities.  We will always stay there when going back for treatment at MD Anderson.More</t>
   </si>
   <si>
@@ -336,12 +444,48 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This hotel was a bit out of the way from all the main attractions for super bowl but was super convenient because it is located around the corner from tons of places to eat and a gym which helped out a lot. The staff was super helpful and attentive even though they seem a bit understaffed because every time I would call down for some thing I would have to come down and get it because there was only one person on staff. I would recommend this hotel to any one in the area. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r461530086-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>461530086</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Family Reuion</t>
+  </si>
+  <si>
+    <t>Outstanding professional and friendly service.  The rooms were very clean, spacious and very comfortable with a roomy sitting area. The staff members were so accommodating and went out of their way to make sure everything was as we needed it. The meeting room was large enough for our 34 guests and very clean. The breakfast was delicious with lots of hot and cold choices which included waffles, eggs scrambled or boiled and hot biscuits with gravy along with the typical cold choices of cereal that most hotels offer. Excellent value and exceptional staff including Janice and Manny the managers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Outstanding professional and friendly service.  The rooms were very clean, spacious and very comfortable with a roomy sitting area. The staff members were so accommodating and went out of their way to make sure everything was as we needed it. The meeting room was large enough for our 34 guests and very clean. The breakfast was delicious with lots of hot and cold choices which included waffles, eggs scrambled or boiled and hot biscuits with gravy along with the typical cold choices of cereal that most hotels offer. Excellent value and exceptional staff including Janice and Manny the managers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r453434529-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>453434529</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Stayed again.</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was still as great as our last stay here.Very pleasant staff. Easy check in &amp; out.Convenient parking. Very reasonable rates. Well litparking lot at night. Wonderful hot breakfast with very clean dining areaand plenty of seating. Clean, fresh smelling rooms, also hallway, lobby &amp; grounds clean.Plan to stay again when in the area.Definitely recommend  this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was still as great as our last stay here.Very pleasant staff. Easy check in &amp; out.Convenient parking. Very reasonable rates. Well litparking lot at night. Wonderful hot breakfast with very clean dining areaand plenty of seating. Clean, fresh smelling rooms, also hallway, lobby &amp; grounds clean.Plan to stay again when in the area.Definitely recommend  this property.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r443269010-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -393,6 +537,42 @@
     <t>This hotel was clean, reasonably priced, in a great location, and had friendly staff.  I liked that the location was away from the freeways, but quick and easy access. They are replacing some tile in the hallways, but wasn't a problem. Our room had already been updated and had all the nice amenities you would expect. Will definitely stay here again when in the area.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r426098507-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>426098507</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Great Area not far from 288 and Beltway 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to many restaurants(Whataburger, Olive Garden , Dennys) and grocery stores(HEB, Walmart, Randall ).  Gas stations about 2 blocks away. The Pearland Town Center has Dillards, Macys and many more. The hotel it self has a very friendly and helpful staff.  The breakfast is different for the days I was there. The room was nice and great size, was clean also.  I  would stay again.  </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r423472526-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>423472526</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Excellent!!!!!!</t>
+  </si>
+  <si>
+    <t>My experience and stay here at this Comfort Suites was one of the best stays away from home that have ever experience. Everything about this stay was excellent, the hot breakfast, the service individuals, the parking. This was the idea stay away from home, I loved this place. I stayed several nights at this place.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r412258402-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -441,7 +621,40 @@
     <t>Stayed at this location Sunday-Thursday for several weeks.  Great room, great staff, super service!!!  From the time you arrive, staff is very friendly and helpful.  Janice, David and Samantha are awesome employees always willing to assist.  Good location near many restaraunts. Thank you!</t>
   </si>
   <si>
-    <t>July 2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r382968515-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>382968515</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Very quiet hotel</t>
+  </si>
+  <si>
+    <t>The hotel was completely full of business men, working men, families and singles but I found it to be almost completely noise free especially since it was next to a day care.Had a great night's sleep in a large room. Hot breakfast was good. Very beautiful hotel and wonderful staff!The hotel is off the main road in Pearland but was easy to find. I would definitely book it again.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r373077428-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>373077428</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly and smooth </t>
+  </si>
+  <si>
+    <t>Check in was a breeze, front desk staff very friendly.. Shower head was so welcoming after a day at schlitterbaun... My granddaughter did not want to get out of the tub(even after being in water all day) and my husband (who is normally in and out) did not want to get out of shower either.. Breakfast was good and coffee excellent... The room was a king suite which was perfect for the three us.. We will return!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r356541407-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
@@ -462,9 +675,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r355182374-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -501,6 +711,45 @@
     <t>We stayed for 1 night, and it was wonderful. Prior to arrival, I had spoke with Samantha who is one of the managers and she offered to upgrade my room to a king executive suite free of charge, because I had been inquiring multiple times about having a corner room. I was really impressed that she honored that. The shower was great, I love the fact that you can change the different speeds and styles of the shower head. The bed was very comfortable, clean, and soft. I loved the free parking also. I wasn't really to big on the breakfast but hey I'm not much of a breakfast person anyway. If I ever come to this specific side of town again, I definitely know where to book. I was very pleased with the hospitality, the cleanness, the quietness, and the overall feeling of relaxation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r342006981-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>342006981</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>GREAT hotel!</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay and had absolutely no problems anywhere.Clean rooms , lobby, grounds.Pet friendly for small extra fee.VERY large area to walk dog.Larger than average rooms with comfy beds and wonderful pillows.Small couch and coffee table.Convenient outlets to charge phone without having to crawl aroundand search. Nice work area with good size desk for laptop.Mini frig and microwave worked well. Great central air in room.Enjoyed hot breakfast with good food and large dining area with plenty of seating.  Everyone here works hard to make your stay a very pleasant one.Big selection of snacks available for 24hour purchase in lobby.Property is slightly off main highway and is quiet.Plan to stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay and had absolutely no problems anywhere.Clean rooms , lobby, grounds.Pet friendly for small extra fee.VERY large area to walk dog.Larger than average rooms with comfy beds and wonderful pillows.Small couch and coffee table.Convenient outlets to charge phone without having to crawl aroundand search. Nice work area with good size desk for laptop.Mini frig and microwave worked well. Great central air in room.Enjoyed hot breakfast with good food and large dining area with plenty of seating.  Everyone here works hard to make your stay a very pleasant one.Big selection of snacks available for 24hour purchase in lobby.Property is slightly off main highway and is quiet.Plan to stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r321597998-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>321597998</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a great stay.. it was clean and well put together.. no problems at all.. we were able to get what we had requested.. the only thing rude about this hotel was the other guests.. I will definitely be coming to stay here again.. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r317235806-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -516,9 +765,6 @@
     <t>Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the...Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the front desk with the confirmation email and she was being very rude and told us that we were only booked that night only and so I handed her my phone to show her the email and she looked at it for a second and then slammed my phone onto the counter and said we needed to pay for an extra night. I would've if it wasn't for her being very unprofessional and rude about it. So I called the Comfort suites customer service line and told them what had happened and they basically said there was nothing they could but charge us the night despite my front desk experience. The only manager on duty was the one being unprofessional so I told the lady over the phone that I wanted to check out and this is ridiculous. The manager was waiting in the hallway and asked if we had called the property managers and I had said yes because she was being very rude. After that she acted like nothing had ever happened and she said she would bring it to the general managers attention about this whole confusion. I never heard from the general manager. This had essentially ruined the rest of the trip for me and I no longer felt welcomed in the hotel. It is safe to say i'll never return to this or ANY comfort suites. I think it could've been handled more nicely and efficiently than it was.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the...Me and two friends had to go to Houston on short notice and having previous good travel experience with Comfort Suites I had decided to call around the Houston area looking for a room for the next morning at three a.m.. I have done this before with no problem. The front desk attendant that I had talked to was very helpful and said she had rooms available and this was the night before at ten pm and I had told her we would be arriving at the three in the morning and she said no problem and booked us the two nights and sent us the confirmation for the reservation. When we had got there, there was a new attendant and she checked us in we had asked multiple times to make sure that we were booked until thursday morning and she had said yes but only charged us one night which I shouldve looked at the receipt but we were tired and she said we were booked until thursday morning so I didn't worry. The next day at 12 pm we were all still in bed and the manager on duty janice came pounding on our door we had opened it and she very rudely told us that we had needed to check out right now. Despite telling her that we were booked until thursday morning she wouldn't not listen and said that we weren't. I went to the front desk with the confirmation email and she was being very rude and told us that we were only booked that night only and so I handed her my phone to show her the email and she looked at it for a second and then slammed my phone onto the counter and said we needed to pay for an extra night. I would've if it wasn't for her being very unprofessional and rude about it. So I called the Comfort suites customer service line and told them what had happened and they basically said there was nothing they could but charge us the night despite my front desk experience. The only manager on duty was the one being unprofessional so I told the lady over the phone that I wanted to check out and this is ridiculous. The manager was waiting in the hallway and asked if we had called the property managers and I had said yes because she was being very rude. After that she acted like nothing had ever happened and she said she would bring it to the general managers attention about this whole confusion. I never heard from the general manager. This had essentially ruined the rest of the trip for me and I no longer felt welcomed in the hotel. It is safe to say i'll never return to this or ANY comfort suites. I think it could've been handled more nicely and efficiently than it was.More</t>
   </si>
   <si>
@@ -555,6 +801,53 @@
     <t>Check-in was quick and easy.  Room was large and bed was comfortable.  nice to have a seating area with couch and coffee table.  Breakfast was very good.  Staff friendly and helpful.  Outdoor pool looks great but was raining so we didn't go in.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r278469474-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>278469474</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>A Newer Comfort Suites with Some Exceptions</t>
+  </si>
+  <si>
+    <t>As other reviewers have posted this is a newer property.  The rooms are large and very comfortable.  Check-in was quick and we were greeted as an Elite Platinum member.  The room itself would have exceeded our expectations with the exception that the refrigerator had drinks from the previous occupant in it.   
+The staff was friendly with about the only negative coming from the front desk clerk that was working the 3rd shift.  I had went to the exercise room to use the stationary bicycle and found that it didn't work.  I notified her of that issue and she failed to tag it out of service that night and the following night also.  At check-out I brought that maintenance issue up with the day front desk clerk who said nothing had been placed in the pass down log in regards to it.     
+This hotel has a full breakfast that includes a decent selection of healthy food options.  The front desk also has a snack bar that has a good selection of goods in it.  
+Our family would stay here again, but I would probably call first to make sure that the stationary bicycle was working as one of the deciding factors for selecting this hotel was that it had a stationary bicycle. 
+Driving on Broadway Street can be hectic depending upon the time of day especially on a Saturday and you would be better served taking a left on Miller Ranch...As other reviewers have posted this is a newer property.  The rooms are large and very comfortable.  Check-in was quick and we were greeted as an Elite Platinum member.  The room itself would have exceeded our expectations with the exception that the refrigerator had drinks from the previous occupant in it.   The staff was friendly with about the only negative coming from the front desk clerk that was working the 3rd shift.  I had went to the exercise room to use the stationary bicycle and found that it didn't work.  I notified her of that issue and she failed to tag it out of service that night and the following night also.  At check-out I brought that maintenance issue up with the day front desk clerk who said nothing had been placed in the pass down log in regards to it.     This hotel has a full breakfast that includes a decent selection of healthy food options.  The front desk also has a snack bar that has a good selection of goods in it.  Our family would stay here again, but I would probably call first to make sure that the stationary bicycle was working as one of the deciding factors for selecting this hotel was that it had a stationary bicycle. Driving on Broadway Street can be hectic depending upon the time of day especially on a Saturday and you would be better served taking a left on Miller Ranch Rd. as you leave the property and take another left on Hughes Ranch Rd. which will get you  to Hwy. 288.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>As other reviewers have posted this is a newer property.  The rooms are large and very comfortable.  Check-in was quick and we were greeted as an Elite Platinum member.  The room itself would have exceeded our expectations with the exception that the refrigerator had drinks from the previous occupant in it.   
+The staff was friendly with about the only negative coming from the front desk clerk that was working the 3rd shift.  I had went to the exercise room to use the stationary bicycle and found that it didn't work.  I notified her of that issue and she failed to tag it out of service that night and the following night also.  At check-out I brought that maintenance issue up with the day front desk clerk who said nothing had been placed in the pass down log in regards to it.     
+This hotel has a full breakfast that includes a decent selection of healthy food options.  The front desk also has a snack bar that has a good selection of goods in it.  
+Our family would stay here again, but I would probably call first to make sure that the stationary bicycle was working as one of the deciding factors for selecting this hotel was that it had a stationary bicycle. 
+Driving on Broadway Street can be hectic depending upon the time of day especially on a Saturday and you would be better served taking a left on Miller Ranch...As other reviewers have posted this is a newer property.  The rooms are large and very comfortable.  Check-in was quick and we were greeted as an Elite Platinum member.  The room itself would have exceeded our expectations with the exception that the refrigerator had drinks from the previous occupant in it.   The staff was friendly with about the only negative coming from the front desk clerk that was working the 3rd shift.  I had went to the exercise room to use the stationary bicycle and found that it didn't work.  I notified her of that issue and she failed to tag it out of service that night and the following night also.  At check-out I brought that maintenance issue up with the day front desk clerk who said nothing had been placed in the pass down log in regards to it.     This hotel has a full breakfast that includes a decent selection of healthy food options.  The front desk also has a snack bar that has a good selection of goods in it.  Our family would stay here again, but I would probably call first to make sure that the stationary bicycle was working as one of the deciding factors for selecting this hotel was that it had a stationary bicycle. Driving on Broadway Street can be hectic depending upon the time of day especially on a Saturday and you would be better served taking a left on Miller Ranch Rd. as you leave the property and take another left on Hughes Ranch Rd. which will get you  to Hwy. 288.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r254533155-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>254533155</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Newer hotel with large, clean rooms.  Very comfortable.  Friendly, helpful staff.Not only had full breakfast, but had light supper each evening. Heading east, so easy back to the highway without going through Houston traffic in the morning.Had a coupon from the travel center, so rate was reasonable.  Good fitness room.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r253436398-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -570,9 +863,6 @@
     <t>Nice newer C.S. The staff is super friendly. They make you feel good about staying with them. Up by the front desk is a snack lovers dream. Nice assortment of snacks but the thing that got me was the pint sized Blue Bell ice creams for sale. For you people outside of Texas, Blue Bell is the best. You won't be disappointed. Now back to the hotel. Nice new modern décor, big rooms, frig, microwave, USB/AC outlets, soft/firm pillow selection. Internet was slow for me but got my stuff done. Close by are all kinds of stores and restaurants. Would I stay here again? In a heart beat.</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r231338603-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -582,9 +872,6 @@
     <t>09/28/2014</t>
   </si>
   <si>
-    <t>Great Stay</t>
-  </si>
-  <si>
     <t>Very nice.. Room exceeded my expectations. It was very clean, bed was extremely comfortable and the staff was very accommodating. Breakfast area clean with nice breakfast and the evening refreshments were great.. Could have found a cheaper hotel, but the price is very much worth it..MoreShow less</t>
   </si>
   <si>
@@ -615,6 +902,60 @@
     <t>Nothing but good all around. Room was super clean with plenty of towels. Beds were super comfortable with both soft &amp; firm pillows to choose from. Staff was helpful &amp; friendly, manager even offered to get me breakfast even after it was over &amp; they were cleaning up.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r228264398-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>228264398</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, slow internet ...</t>
+  </si>
+  <si>
+    <t>Good water pressure, spaceous open rooms with great desk and a lot of plugs for charging. Beds were very comfortable with plush linnens One thing a little different that may bother some people is that guests congregate outside on folding chairs to have a beer and smoke. Didn't bother me Since this is just like your typical Texas ice house but it may bother some especially women traveling by themselves.Internet was VERY slow so I used my cell hot spot but this may be a show stopper for some business travelers. Staff were Very friendly and helpful.I hope this helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Comfort Suites P, General Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Good water pressure, spaceous open rooms with great desk and a lot of plugs for charging. Beds were very comfortable with plush linnens One thing a little different that may bother some people is that guests congregate outside on folding chairs to have a beer and smoke. Didn't bother me Since this is just like your typical Texas ice house but it may bother some especially women traveling by themselves.Internet was VERY slow so I used my cell hot spot but this may be a show stopper for some business travelers. Staff were Very friendly and helpful.I hope this helps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r224919824-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>224919824</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Seriously a home away from home!!!</t>
+  </si>
+  <si>
+    <t>I don't ever think I've stayed in a better hotel EVER!  The staff goes over and above in customer service to make your stay feel awesome!  Manny the supervisor and Janice Van Houton the front receptionist and all the staff there were AMAZING!  We had to stay for over 3 weeks while transferring from Australia.  We're buying a house and needed a long stay. it really was great!  They had delicious breakfast every morning!  From waffles to yogurt to eggs and sausage biscuits!  They even had on Tuesday and Wednesday nights...complimentary cocktails and dinner for the guests!  This place has DEFINITELY raised the bar on hotel stays for me!  BRAVO Comfort suites!  I'll DEFINITELY be back!!! Ps.  They deserve a raise!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>CSTX952, General Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>I don't ever think I've stayed in a better hotel EVER!  The staff goes over and above in customer service to make your stay feel awesome!  Manny the supervisor and Janice Van Houton the front receptionist and all the staff there were AMAZING!  We had to stay for over 3 weeks while transferring from Australia.  We're buying a house and needed a long stay. it really was great!  They had delicious breakfast every morning!  From waffles to yogurt to eggs and sausage biscuits!  They even had on Tuesday and Wednesday nights...complimentary cocktails and dinner for the guests!  This place has DEFINITELY raised the bar on hotel stays for me!  BRAVO Comfort suites!  I'll DEFINITELY be back!!! Ps.  They deserve a raise!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r222497594-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -633,12 +974,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>CSTX952, General Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded September 4, 2014</t>
-  </si>
-  <si>
-    <t>Responded September 4, 2014</t>
-  </si>
-  <si>
     <t>OMG it was such a bad hotel. I was screamed at by hotel guest, hotel staff, and feared for my life. Such a horrible place I can't believe it is rated as well as it is do not stay here. Good golly the staff need to leave, they are not good for business.More</t>
   </si>
   <si>
@@ -681,6 +1016,36 @@
     <t>We (3 adults) scheduled this hotel to attend a video conference the next day.  Though the hotel was doing some renovation (new light fixtures), the room was quite comfortable with a microwave and refrigerator, a comfortable bed and sleeper sofa for our third person.  The absolute BEST feature was the charger/plug in for electronics!--no crawling around under a table to find the plugs.  We were treated to "supper" of pulled pork sandwiches and salad compliments of the hotel.  Their hot breakfast of 2 kinds of eggs, sausage, cereal, waffles, yogurt, sweet rolls, English muffins, and the best orange juice that was NOT watered down.  The desk clerk, Janice, was most helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r214416824-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>214416824</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>I like the suite</t>
+  </si>
+  <si>
+    <t>I stayed here while waiting for my apartment to become available and got a good AAA discounted suite just by walking in and asking if there was any vacancy. The suite is huge. One of the biggest rooms I have seen for this price point.Pros: huge room, microwave, fridge, free breakfast. Lots of nearby shopping and restaurants, couchCons: Slow wifi, towel rack was in the back of my shower.Tip: Use the free wired Internet because it's really fast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r211684977-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>211684977</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Great Place &amp; Outstanding Service</t>
+  </si>
+  <si>
+    <t>Want to find a home away from home - this is your place.The staff is great (esp Ms. Janice), they are attentive and always checking to make sure you are never in need of anything.  No place like home.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r210799194-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -732,6 +1097,45 @@
     <t xml:space="preserve">The staff was very helpful as I was chaperoning a team of high school athletes. We were there for two nights. The staff even allowed us to use the breakfast area for dinner that we had catered by Olive Garden. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r191360191-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>191360191</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel but not for the business professional</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. The staff is super friendly and helpful. The breakfast was very good and much better than the Laquinta Inn where we have stayed numerous times when in Pearland. The wi-fi was good and the fitness facilities were adequate. The hotel is fine for families, workers and those on vacation but not for the business professional who would like to keep up with the stock market or business news of the day. The hotel does not offer any business programming on their TV. There is no Bloomberg or CNBC,etc. yet the hotel ads say they are geared toward business travelers. In fact the TV programming is some of the worse we have encountered in our travels all over the US.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. The staff is super friendly and helpful. The breakfast was very good and much better than the Laquinta Inn where we have stayed numerous times when in Pearland. The wi-fi was good and the fitness facilities were adequate. The hotel is fine for families, workers and those on vacation but not for the business professional who would like to keep up with the stock market or business news of the day. The hotel does not offer any business programming on their TV. There is no Bloomberg or CNBC,etc. yet the hotel ads say they are geared toward business travelers. In fact the TV programming is some of the worse we have encountered in our travels all over the US.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r190275746-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>190275746</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Great Newer hotel</t>
+  </si>
+  <si>
+    <t>This hotel offered a great room at a great price.  It seems to be a newer hotel, and it was clean.  The service was good and very friendly.  The location was adequate if you need to be in this part of the Houston area, but there isn't a lot of shopping or restaurants available in the area.  It was a really nice experience though as far as the hotel itself goes.  I'd stay here again.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r190196918-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -747,9 +1151,6 @@
     <t>Stayed at this hotel one night and if I ever go back to this area of Texas I will stay here again.  The room (double bed) was large, clean, comfortable, and quiet.  The bathroom was well stocked with towels.  The staff was great as well, I wish I got the name of the lady that checked us in on Saturday evening, she was helpful and very friendly.   She helped us to try and locate a route from Pearland towards San Antonio that would have us avoid the Tollways in Houston.  If you haven't been to Houston, be prepared for these Tollways, especially if you are renting a car.  The breakfast was very good as well, nice selection.  Thought this hotel was worth the price we paid.MoreShow less</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>Stayed at this hotel one night and if I ever go back to this area of Texas I will stay here again.  The room (double bed) was large, clean, comfortable, and quiet.  The bathroom was well stocked with towels.  The staff was great as well, I wish I got the name of the lady that checked us in on Saturday evening, she was helpful and very friendly.   She helped us to try and locate a route from Pearland towards San Antonio that would have us avoid the Tollways in Houston.  If you haven't been to Houston, be prepared for these Tollways, especially if you are renting a car.  The breakfast was very good as well, nice selection.  Thought this hotel was worth the price we paid.More</t>
   </si>
   <si>
@@ -768,9 +1169,6 @@
     <t>It all started with the initial online reservation when I inadvertently reserved two rooms. I called the hotel, talked to a Samantha and had the second reservation cancelled. This was a special no cancel reservation. Next came the charge card bill with the second charge. Again, a call to Samantha who removed the billing. The hotel was clean, quiet and very nice. Staff were great, room selection great. When we returned home, my wife noted that she left some of her makeup in the hotel room. Again a call to Samantha who promptly fond the missing article and mailed it to us.Truly a great experience all around.MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>CSTX952, Front Office Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded January 1, 2014</t>
   </si>
   <si>
@@ -798,6 +1196,51 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r183940880-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>183940880</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Convenient location, nice staff</t>
+  </si>
+  <si>
+    <t>I have spent few nights here, and will stay in the future too. Rooms are spacious and clean, staff is really friendly and nice, breakfast is ok and location is very convenient.I have stayed here alone and with family, and we always enjoy our stay. We have had a good night sleep, it's been quiet and beds are clean and comfortable. Only thing I wish was differently is that they had real duvets and duvet covers instead of fleece blanket and sheets. But the main reason for me to come back is great staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>CSTX952, Guest Relations Manager at Comfort Suites Pearland - South Houston, responded to this reviewResponded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2013</t>
+  </si>
+  <si>
+    <t>I have spent few nights here, and will stay in the future too. Rooms are spacious and clean, staff is really friendly and nice, breakfast is ok and location is very convenient.I have stayed here alone and with family, and we always enjoy our stay. We have had a good night sleep, it's been quiet and beds are clean and comfortable. Only thing I wish was differently is that they had real duvets and duvet covers instead of fleece blanket and sheets. But the main reason for me to come back is great staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r167502649-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>167502649</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>Week long business trip. Comfortable suite, good airconditioning, no outside noise as it is one block from main road. Good location, close to restaurants and shopping, and easy access to highways. Appeared that many guests, like myself, were there on business, and saw them at breakfast during the week long stay. Very friendly staff from front desk to housekeeping. Breakfast was usually good, but there was one item that defies description,,, looked something like an egg, but was pancake-like. It appeared a couple days, but I opted for regular eggs after the first attempt. Real slices of ham, and sausages on a rotating basis. Fresh fruit and pastries. Cereals and breads. Waffles are shaped like Texas. Small, clean, pool was well warmed by the direct sunshine in the afternoon. An enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Week long business trip. Comfortable suite, good airconditioning, no outside noise as it is one block from main road. Good location, close to restaurants and shopping, and easy access to highways. Appeared that many guests, like myself, were there on business, and saw them at breakfast during the week long stay. Very friendly staff from front desk to housekeeping. Breakfast was usually good, but there was one item that defies description,,, looked something like an egg, but was pancake-like. It appeared a couple days, but I opted for regular eggs after the first attempt. Real slices of ham, and sausages on a rotating basis. Fresh fruit and pastries. Cereals and breads. Waffles are shaped like Texas. Small, clean, pool was well warmed by the direct sunshine in the afternoon. An enjoyable stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r163383847-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -852,6 +1295,36 @@
     <t>The attention to detail and friendliness of all the staff really make the stay.Manny the manager was excellent and so helpful, on the first morning I had to collect a hire car the local taxi company was busy so Manny dropped me to get the car. That's what I call service.If you want to be where the Texans live then this hotel is perfect if you want to be in the tourist area its not for you.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r160403831-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>160403831</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights when in town on business.  I found the staff to be very friendly and helpful.  The room was spacious and clean.  Breakfast had above average selections and was constantly being replenished.  I especially liked the location with easy access to a major highway but on a side street.  Plenty of restaurants nearby to choose from.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r153404270-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>153404270</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Nice visit</t>
+  </si>
+  <si>
+    <t>This one is in a nice location.  Close to a lot of shopping places, and to Houston.  Place was clean and nice.  Staff was very helpful.  It is nice place to stay if visiting the Houston area.  We will stay when we go back to the area.  Highly recommended.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r146261668-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1382,36 @@
     <t>The first night in the room, my wife woke me up to an infestation of bed bugs. They were all on my daughters pillow. it was horrible. i called the front desk to report it and they put me on hold for a long time. i hung up and got one of the bed bugs and took it down stairs to show it to the clerk. when i made it to the front desk she was on the computer looking to see what a bed bug looks like. She did give me another room across the hall from the first. So here i go at 2:30 in the morning changing my family to another room. needless to say couldn't sleep rest of night.The next morning we saw a exterminator going into the room to spray. I will never stay there again. And if you choose to WATCH OUT FOR THE BED BUGS. And on top of it all they only gave me a $40.00 discount. i also have one of the larger bed bugs as a reminder. Tried calling the general manager who now refuse to return my calls.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r133158169-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>133158169</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Away from the highway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a newer property, just a few blocks off the highway, but off the main road- so there's no traffic noise! Room was large, beds comfy. Breakfast was good- usual CS offerings- could be better, but definately sufficient. Only real issue: we had a child sleeping on the pullout sofa. We were given extra towels &amp; sheets at check in- without even asking! However the fitted sheet had a moderate sized blood stain. I do realize that different people stay @ hotels, this isn't home, etc. But I do believe this should have been caught by housekeeping. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r132827591-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>132827591</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Keep the staff. Fire the management.</t>
+  </si>
+  <si>
+    <t>Stayed for three nights. The place was booked solid. Staff was terrific. I could see they were strained, but they seemed genuinely concerned with making guests comfortable -- almost to the point of apologetic.The facillities need some attention. Refridgerator sounded like it was crying for help. The AC was like a freight train. And I could hear the nice family next door having pillow talk.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r124222113-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1464,39 @@
   </si>
   <si>
     <t>The front desk service and room was satisfactory:  the clerk was courteous and efficient, the room clean and large.  We went down to the breakfast bar about 8 a.m.  It was NOT crowded.  We had to ask for plates to put our food on, the eggs and sausage were cold, and there was no pepper available.  When it was requested it was said to be unavailable.  Milk and juices were in pitchers which meant they did not remain chilled and tasted room temp.  A refrigerated juice and milk dispenser (like we've used at other Comforts) could be installed to solve this issue.  There was yogurt available in the refrigerated unit for butter, boiled eggs, and cream cheese.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r120128664-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120128664</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>GREAT place to stay! Friendly &amp; Helpful!</t>
+  </si>
+  <si>
+    <t>I stayed that this hotel for over 3 weeks while awaiting a permanent place to live. The hotel is clean and aesthetically nice and all the Staff was very friendly and helpful. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1484269-r111149039-Comfort_Suites_Pearland_South_Houston-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>111149039</t>
+  </si>
+  <si>
+    <t>06/02/2011</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>Man, what a hotel. I advise eveyone to stay here. They got new management and it is increaditable. They are nice, friendly and reliable. You should try it out.</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +2031,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1505,14 +2041,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1556,7 +2088,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -1576,7 +2108,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1592,7 +2124,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1601,34 +2133,32 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1639,7 +2169,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1655,34 +2185,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1696,7 +2226,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1712,7 +2242,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1721,25 +2251,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1751,7 +2281,7 @@
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1759,7 +2289,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1775,7 +2305,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1784,43 +2314,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1836,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1845,31 +2371,31 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
@@ -1899,56 +2425,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
         <v>97</v>
-      </c>
-      <c r="X9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1964,52 +2482,54 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
         <v>103</v>
-      </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>97</v>
-      </c>
-      <c r="X10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2025,46 +2545,44 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
       <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2072,7 +2590,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2088,48 +2606,54 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -2145,48 +2669,54 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
         <v>120</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>121</v>
       </c>
-      <c r="J13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>113</v>
-      </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -2202,48 +2732,54 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
         <v>125</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>126</v>
       </c>
-      <c r="J14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>129</v>
-      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="P14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -2259,46 +2795,54 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
         <v>131</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>132</v>
       </c>
-      <c r="J15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>134</v>
+      </c>
       <c r="Y15" t="s">
         <v>135</v>
       </c>
@@ -2337,33 +2881,31 @@
         <v>140</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
         <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X16" t="s">
+        <v>134</v>
+      </c>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -2379,7 +2921,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2388,34 +2930,34 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2423,10 +2965,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>133</v>
+      </c>
+      <c r="X17" t="s">
+        <v>134</v>
+      </c>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2463,7 +3009,7 @@
         <v>153</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
         <v>154</v>
@@ -2473,23 +3019,27 @@
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>133</v>
+      </c>
+      <c r="X18" t="s">
+        <v>134</v>
+      </c>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -2505,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2514,32 +3064,38 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -2562,7 +3118,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2571,36 +3127,32 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -2644,26 +3196,20 @@
         <v>172</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
@@ -2686,52 +3232,48 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>174</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>175</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>176</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>177</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>178</v>
       </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>173</v>
-      </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -2774,15 +3316,13 @@
         <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2833,8 +3373,12 @@
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -2844,14 +3388,10 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>190</v>
-      </c>
-      <c r="X24" t="s">
-        <v>191</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -2867,58 +3407,48 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
         <v>193</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>194</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>195</v>
       </c>
-      <c r="K25" t="s">
-        <v>196</v>
-      </c>
-      <c r="L25" t="s">
-        <v>197</v>
-      </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>190</v>
-      </c>
-      <c r="X25" t="s">
-        <v>191</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
@@ -2934,58 +3464,54 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
         <v>199</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>200</v>
       </c>
-      <c r="J26" t="s">
-        <v>201</v>
-      </c>
-      <c r="K26" t="s">
-        <v>202</v>
-      </c>
-      <c r="L26" t="s">
-        <v>203</v>
-      </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
         <v>59</v>
       </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>205</v>
-      </c>
-      <c r="X26" t="s">
-        <v>206</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -3001,7 +3527,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3010,25 +3536,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3042,7 +3568,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
@@ -3058,7 +3584,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3067,43 +3593,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
@@ -3119,7 +3641,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3128,39 +3650,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
@@ -3176,7 +3704,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3185,41 +3713,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3227,7 +3751,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
@@ -3243,7 +3767,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3252,45 +3776,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -3306,7 +3824,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3315,49 +3833,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3881,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3382,53 +3890,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>251</v>
-      </c>
-      <c r="X33" t="s">
-        <v>252</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
@@ -3444,7 +3938,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3453,41 +3947,35 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J34" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s">
-        <v>106</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3495,7 +3983,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -3511,7 +3999,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3520,41 +4008,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>5</v>
       </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3562,7 +4046,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
@@ -3578,7 +4062,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3587,41 +4071,35 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3629,7 +4107,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
@@ -3645,7 +4123,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3654,32 +4132,28 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O37" t="s">
-        <v>106</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>5</v>
       </c>
@@ -3688,7 +4162,7 @@
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3696,7 +4170,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38">
@@ -3712,7 +4186,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3721,38 +4195,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J38" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
       </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>4</v>
@@ -3763,7 +4233,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39">
@@ -3779,7 +4249,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3788,38 +4258,34 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
-        <v>106</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
         <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -3830,7 +4296,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
@@ -3846,7 +4312,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3855,49 +4321,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K40" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="s">
-        <v>295</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>283</v>
+      </c>
+      <c r="X40" t="s">
+        <v>284</v>
+      </c>
       <c r="Y40" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
@@ -3913,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3922,34 +4378,30 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="N41" t="s">
-        <v>302</v>
-      </c>
-      <c r="O41" t="s">
-        <v>90</v>
-      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -3961,10 +4413,14 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>283</v>
+      </c>
+      <c r="X41" t="s">
+        <v>284</v>
+      </c>
       <c r="Y41" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
@@ -3980,7 +4436,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -3989,49 +4445,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="J42" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>298</v>
+      </c>
+      <c r="X42" t="s">
+        <v>299</v>
+      </c>
       <c r="Y42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
@@ -4047,7 +4497,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4056,49 +4506,2005 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>307</v>
+      </c>
+      <c r="X43" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>307</v>
+      </c>
+      <c r="X44" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>322</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>325</v>
+      </c>
+      <c r="J46" t="s">
+        <v>326</v>
+      </c>
+      <c r="K46" t="s">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>315</v>
+      </c>
+      <c r="O48" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="n">
         <v>3</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s">
-        <v>314</v>
+      <c r="N49" t="s">
+        <v>315</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K50" t="s">
+        <v>349</v>
+      </c>
+      <c r="L50" t="s">
+        <v>350</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>351</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>353</v>
+      </c>
+      <c r="J51" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" t="s">
+        <v>355</v>
+      </c>
+      <c r="L51" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>358</v>
+      </c>
+      <c r="J52" t="s">
+        <v>359</v>
+      </c>
+      <c r="K52" t="s">
+        <v>360</v>
+      </c>
+      <c r="L52" t="s">
+        <v>361</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>362</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" t="s">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s">
+        <v>368</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>369</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>371</v>
+      </c>
+      <c r="J54" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" t="s">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s">
+        <v>374</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>362</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" t="s">
+        <v>380</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>369</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>381</v>
+      </c>
+      <c r="X55" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" t="s">
+        <v>394</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>369</v>
+      </c>
+      <c r="O57" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>395</v>
+      </c>
+      <c r="X57" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" t="s">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>403</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>406</v>
+      </c>
+      <c r="J59" t="s">
+        <v>407</v>
+      </c>
+      <c r="K59" t="s">
+        <v>408</v>
+      </c>
+      <c r="L59" t="s">
+        <v>409</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>410</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>412</v>
+      </c>
+      <c r="J60" t="s">
+        <v>413</v>
+      </c>
+      <c r="K60" t="s">
+        <v>414</v>
+      </c>
+      <c r="L60" t="s">
+        <v>415</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>416</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>419</v>
+      </c>
+      <c r="J61" t="s">
+        <v>420</v>
+      </c>
+      <c r="K61" t="s">
+        <v>421</v>
+      </c>
+      <c r="L61" t="s">
+        <v>422</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>416</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>423</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>424</v>
+      </c>
+      <c r="J62" t="s">
+        <v>425</v>
+      </c>
+      <c r="K62" t="s">
+        <v>373</v>
+      </c>
+      <c r="L62" t="s">
+        <v>426</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>416</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>428</v>
+      </c>
+      <c r="J63" t="s">
+        <v>429</v>
+      </c>
+      <c r="K63" t="s">
+        <v>430</v>
+      </c>
+      <c r="L63" t="s">
+        <v>431</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>432</v>
+      </c>
+      <c r="O63" t="s">
+        <v>67</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>433</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>434</v>
+      </c>
+      <c r="J64" t="s">
+        <v>435</v>
+      </c>
+      <c r="K64" t="s">
+        <v>436</v>
+      </c>
+      <c r="L64" t="s">
+        <v>437</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>438</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>440</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>441</v>
+      </c>
+      <c r="J65" t="s">
+        <v>442</v>
+      </c>
+      <c r="K65" t="s">
+        <v>443</v>
+      </c>
+      <c r="L65" t="s">
+        <v>444</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>446</v>
+      </c>
+      <c r="J66" t="s">
+        <v>447</v>
+      </c>
+      <c r="K66" t="s">
+        <v>448</v>
+      </c>
+      <c r="L66" t="s">
+        <v>449</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>450</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>453</v>
+      </c>
+      <c r="J67" t="s">
+        <v>454</v>
+      </c>
+      <c r="K67" t="s">
+        <v>455</v>
+      </c>
+      <c r="L67" t="s">
+        <v>456</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>457</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>458</v>
+      </c>
+      <c r="J68" t="s">
+        <v>459</v>
+      </c>
+      <c r="K68" t="s">
+        <v>460</v>
+      </c>
+      <c r="L68" t="s">
+        <v>461</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>463</v>
+      </c>
+      <c r="J69" t="s">
+        <v>464</v>
+      </c>
+      <c r="K69" t="s">
+        <v>465</v>
+      </c>
+      <c r="L69" t="s">
+        <v>466</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>467</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>468</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>469</v>
+      </c>
+      <c r="J70" t="s">
+        <v>470</v>
+      </c>
+      <c r="K70" t="s">
+        <v>471</v>
+      </c>
+      <c r="L70" t="s">
+        <v>472</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>473</v>
+      </c>
+      <c r="O70" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>474</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>475</v>
+      </c>
+      <c r="J71" t="s">
+        <v>476</v>
+      </c>
+      <c r="K71" t="s">
+        <v>477</v>
+      </c>
+      <c r="L71" t="s">
+        <v>478</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>473</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>480</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>481</v>
+      </c>
+      <c r="J72" t="s">
+        <v>482</v>
+      </c>
+      <c r="K72" t="s">
+        <v>483</v>
+      </c>
+      <c r="L72" t="s">
+        <v>484</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>485</v>
+      </c>
+      <c r="O72" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59365</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>486</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>487</v>
+      </c>
+      <c r="J73" t="s">
+        <v>488</v>
+      </c>
+      <c r="K73" t="s">
+        <v>489</v>
+      </c>
+      <c r="L73" t="s">
+        <v>490</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
